--- a/FacebookBirthday.xlsx
+++ b/FacebookBirthday.xlsx
@@ -11424,8 +11424,8 @@
       <xdr:rowOff>50427</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7692839" cy="543290"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -12647,7 +12647,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -13273,8 +13273,8 @@
       <xdr:rowOff>169215</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4886787" cy="493597"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -13968,7 +13968,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -14037,6 +14037,44 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>98407</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9043147" y="2689412"/>
+          <a:ext cx="4883319" cy="493819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20699,7 +20737,7 @@
   <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>

--- a/FacebookBirthday.xlsx
+++ b/FacebookBirthday.xlsx
@@ -13230,7 +13230,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>341207</xdr:colOff>
+      <xdr:colOff>285178</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>1503</xdr:rowOff>
     </xdr:to>
@@ -13267,14 +13267,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107574</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>169215</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>505382</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40349</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4886787" cy="493597"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="6632765" cy="705193"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -13282,8 +13282,804 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7100045" y="2186274"/>
-              <a:ext cx="4886787" cy="493597"/>
+              <a:off x="12282764" y="2953878"/>
+              <a:ext cx="6632765" cy="705193"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>365,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−365</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>365,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>365+</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−365−1,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−365</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>365+</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−1,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−365</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>+364</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>364</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>+364</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>364</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12282764" y="2953878"/>
+              <a:ext cx="6632765" cy="705193"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃=𝐻(365,   𝑁−365)/𝐻(365,   𝑁) =</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶(365+𝑁−365−1,   𝑁−365)/𝐶(365+𝑁−1,   𝑁) =((█(𝑁−1@𝑁−365)))/((█(𝑁+364@𝑁)) )=((█(𝑁−1@364)))/((█(𝑁+364@364)) )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>445014</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107996</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2759794" cy="462114"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12222396" y="3917996"/>
+              <a:ext cx="2759794" cy="462114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13310,674 +14106,264 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝑃</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐻</m:t>
-                      </m:r>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>365,   </m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>−365</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:d>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐻</m:t>
-                      </m:r>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>365,   </m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:d>
-                    </m:den>
-                  </m:f>
-                  <m:r>
-                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐶</m:t>
-                      </m:r>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>365+</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−365−1,   </m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−365</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:d>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐶</m:t>
-                      </m:r>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>365+</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>−1,   </m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑁</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:d>
-                    </m:den>
-                  </m:f>
-                  <m:r>
-                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:eqArr>
-                            <m:eqArrPr>
-                              <m:ctrlPr>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:eqArrPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑁</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>−1</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑁</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>−365</m:t>
-                              </m:r>
-                            </m:e>
-                          </m:eqArr>
-                        </m:e>
-                      </m:d>
-                    </m:num>
-                    <m:den>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:eqArr>
-                            <m:eqArrPr>
-                              <m:ctrlPr>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:eqArrPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>364+</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑁</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑁</m:t>
-                              </m:r>
-                            </m:e>
-                          </m:eqArr>
-                        </m:e>
-                      </m:d>
-                    </m:den>
-                  </m:f>
-                  <m:r>
-                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:eqArr>
-                            <m:eqArrPr>
-                              <m:ctrlPr>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:eqArrPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑁</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>−1</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>364</m:t>
-                              </m:r>
-                            </m:e>
-                          </m:eqArr>
-                        </m:e>
-                      </m:d>
-                    </m:num>
-                    <m:den>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:eqArr>
-                            <m:eqArrPr>
-                              <m:ctrlPr>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:eqArrPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>364+</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑁</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:e>
-                              <m:r>
-                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>364</m:t>
-                              </m:r>
-                            </m:e>
-                          </m:eqArr>
-                        </m:e>
-                      </m:d>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>, </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
               </a14:m>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-                <a:t> </a:t>
-              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7100045" y="2186274"/>
-              <a:ext cx="4886787" cy="493597"/>
+              <a:off x="12222396" y="3917996"/>
+              <a:ext cx="2759794" cy="462114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14004,14 +14390,9 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑃=𝐻(365,   𝑁−365)/𝐻(365,   𝑁) =</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -14020,14 +14401,2419 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐶(365+𝑁−365−1,   𝑁−365)/𝐶(365+𝑁−1,   𝑁) =((█(𝑁−1@𝑁−365)))/((█(364+𝑁@𝑁)) )=((█(𝑁−1@364)))/((█(364+𝑁@364)) )</a:t>
+                <a:t>𝐶(𝑛, 𝑘)=(█(𝑛@𝑘))=(█(𝑛@𝑛−𝑘))</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450617</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6407973" cy="544252"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12227999" y="4713614"/>
+              <a:ext cx="6407973" cy="544252"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐻</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑚</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑚</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑚</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12227999" y="4713614"/>
+              <a:ext cx="6407973" cy="544252"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐻(𝑚,𝑟)=𝐶(𝑚+𝑟−1,𝑟)=(█(</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚+𝑟−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>@𝑟))=(█(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚+𝑟−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>@𝑚−1))</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495441</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136010</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7080721" cy="544252"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12272823" y="5514834"/>
+              <a:ext cx="7080721" cy="544252"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐻</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>365,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>365+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+364</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+364</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>364</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12272823" y="5514834"/>
+              <a:ext cx="7080721" cy="544252"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐴=𝐻(365,𝑁)=𝐶(365+𝑁−1,𝑁)=(█(𝑁+364@𝑁))=(█(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑁+364</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>@364))</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>506647</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>197643</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9001951" cy="544252"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12284029" y="6248819"/>
+              <a:ext cx="9001951" cy="544252"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐵</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐻</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>365,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−365</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐶</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>365+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−365−1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−365</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−365</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>364</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12284029" y="6248819"/>
+              <a:ext cx="9001951" cy="544252"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵=𝐻(365,𝑁−365)=𝐶(365+𝑁−365−1,𝑁−365)=(█(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>@𝑁−365))=(█(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑁−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>@364))</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>62761</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7534839" cy="705193"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12316382" y="7010408"/>
+              <a:ext cx="7534839" cy="705193"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>365,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−365</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>365,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>365+</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−365−1,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−365</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐶</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>365+</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>−1,   </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−365</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>+364</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>364</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:eqArr>
+                            <m:eqArrPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:eqArrPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>+364</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>364</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:eqArr>
+                        </m:e>
+                      </m:d>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12316382" y="7010408"/>
+              <a:ext cx="7534839" cy="705193"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃=𝐵/𝐴=𝐻(365,   𝑁−365)/𝐻(365,   𝑁) =</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐶(365+𝑁−365−1,   𝑁−365)/𝐶(365+𝑁−1,   𝑁) =((█(𝑁−1@𝑁−365)))/((█(𝑁+364@𝑁)) )=((█(𝑁−1@364)))/((█(𝑁+364@364)) )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
                 <a:t> </a:t>
               </a:r>
             </a:p>
@@ -14037,44 +16823,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>98407</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45584</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9043147" y="2689412"/>
-          <a:ext cx="4883319" cy="493819"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20734,16 +23482,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H649"/>
+  <dimension ref="A1:I649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.7">
@@ -25920,7 +28669,7 @@
         <v>1.5776141803671403E-102</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B257">
         <v>608</v>
       </c>
@@ -25941,7 +28690,7 @@
         <v>2.4650204870089865E-102</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B258">
         <v>609</v>
       </c>
@@ -25962,7 +28711,7 @@
         <v>3.844490024791472E-102</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B259">
         <v>610</v>
       </c>
@@ -25983,7 +28732,7 @@
         <v>5.9849541101696492E-102</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B260">
         <v>611</v>
       </c>
@@ -26004,7 +28753,7 @@
         <v>9.3001969831200036E-102</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B261">
         <v>612</v>
       </c>
@@ -26025,7 +28774,7 @@
         <v>1.4425736951168248E-101</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B262">
         <v>613</v>
       </c>
@@ -26045,8 +28794,9 @@
         <f t="shared" si="16"/>
         <v>2.2335910504723373E-101</v>
       </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B263">
         <v>614</v>
       </c>
@@ -26067,7 +28817,7 @@
         <v>3.4521869348924626E-101</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B264">
         <v>615</v>
       </c>
@@ -26088,7 +28838,7 @@
         <v>5.326170821183815E-101</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B265">
         <v>616</v>
       </c>
@@ -26109,7 +28859,7 @@
         <v>8.2029699727509314E-101</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B266">
         <v>617</v>
       </c>
@@ -26130,7 +28880,7 @@
         <v>1.2611520490443004E-100</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B267">
         <v>618</v>
       </c>
@@ -26151,7 +28901,7 @@
         <v>1.9355708814506367E-100</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B268">
         <v>619</v>
       </c>
@@ -26172,7 +28922,7 @@
         <v>2.9655207669431169E-100</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B269">
         <v>620</v>
       </c>
@@ -26193,7 +28943,7 @@
         <v>4.5357387212554923E-100</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B270">
         <v>621</v>
       </c>
@@ -26214,7 +28964,7 @@
         <v>6.9255636201530394E-100</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B271">
         <v>622</v>
       </c>
@@ -26235,7 +28985,7 @@
         <v>1.0556673013818221E-99</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B272">
         <v>623</v>
       </c>
